--- a/Elektro/Bestellliste_elektro.xlsx
+++ b/Elektro/Bestellliste_elektro.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tom\Documents\Umbau\Elektro\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dokumente_Thomas_Brandl\GIT_Repository\Umbau\Elektro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CD959E5-8BC9-4053-B985-D8E6FD35FC4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8BAA91D-5514-4F50-86AF-481137FF5DCF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3036" yWindow="3036" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -61,10 +61,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -87,13 +95,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -375,17 +386,17 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.44140625" customWidth="1"/>
-    <col min="3" max="3" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -399,11 +410,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
@@ -413,7 +424,7 @@
         <v>192.18</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -428,7 +439,10 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{C4880C64-704E-4871-B2C8-0DFB42C0B82A}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Elektro/Bestellliste_elektro.xlsx
+++ b/Elektro/Bestellliste_elektro.xlsx
@@ -2,23 +2,31 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
-  <workbookPr/>
+  <workbookPr codeName="DieseArbeitsmappe"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dokumente_Thomas_Brandl\GIT_Repository\Umbau\Elektro\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tom\Documents\Umbau\Elektro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8BAA91D-5514-4F50-86AF-481137FF5DCF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC717881-6632-4BDC-A7B3-F7B099217DDB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -383,20 +391,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.44140625" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -410,7 +419,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -424,11 +433,11 @@
         <v>192.18</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C3" t="s">
@@ -441,8 +450,9 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{C4880C64-704E-4871-B2C8-0DFB42C0B82A}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{E1BE6AF1-C245-4E67-A971-43ABC739BDA7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
 </worksheet>
 </file>